--- a/src/tables/stats.xlsx
+++ b/src/tables/stats.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>1 апреля</t>
   </si>
@@ -183,6 +183,45 @@
   </si>
   <si>
     <t>Infected x2</t>
+  </si>
+  <si>
+    <t>30 апреля</t>
+  </si>
+  <si>
+    <t>1 мая</t>
+  </si>
+  <si>
+    <t>2 мая</t>
+  </si>
+  <si>
+    <t>3 мая</t>
+  </si>
+  <si>
+    <t>4 мая</t>
+  </si>
+  <si>
+    <t>5 мая</t>
+  </si>
+  <si>
+    <t>6 мая</t>
+  </si>
+  <si>
+    <t>7 мая</t>
+  </si>
+  <si>
+    <t>8 мая</t>
+  </si>
+  <si>
+    <t>9 мая</t>
+  </si>
+  <si>
+    <t>10 мая</t>
+  </si>
+  <si>
+    <t>11 мая</t>
+  </si>
+  <si>
+    <t>12 мая</t>
   </si>
 </sst>
 </file>
@@ -526,10 +565,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:I5"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -577,12 +616,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
+        <f t="shared" ref="E2:E4" si="0">B2 - C2</f>
         <v>5</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="1">
+        <f xml:space="preserve"> F2 * 2</f>
         <v>0</v>
       </c>
       <c r="H2">
@@ -603,12 +644,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="1">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="F3" s="1">
+        <f xml:space="preserve"> B3 - B2</f>
         <v>3</v>
       </c>
       <c r="G3" s="1">
+        <f t="shared" ref="G3:G60" si="1" xml:space="preserve"> F3 * 2</f>
         <v>6</v>
       </c>
       <c r="H3">
@@ -630,16 +674,19 @@
         <v>0</v>
       </c>
       <c r="E4" s="1">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="F4" s="1">
+        <f xml:space="preserve"> B4 - B3</f>
         <v>1</v>
       </c>
       <c r="G4" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H47" si="0" xml:space="preserve"> H3 + G4</f>
+        <f t="shared" ref="H4:H60" si="2" xml:space="preserve"> H3 + G4</f>
         <v>13</v>
       </c>
     </row>
@@ -657,16 +704,19 @@
         <v>0</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" ref="E5:E10" si="3">B5 - C5</f>
         <v>9</v>
       </c>
       <c r="F5" s="1">
+        <f t="shared" ref="F5:F22" si="4" xml:space="preserve"> B5 - B4</f>
         <v>0</v>
       </c>
       <c r="G5" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H5" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
     </row>
@@ -684,16 +734,19 @@
         <v>0</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="F6" s="1">
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="G6" s="1">
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H6" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
@@ -711,16 +764,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="F7" s="1">
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="G7" s="1">
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="H7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>23</v>
       </c>
     </row>
@@ -738,16 +794,19 @@
         <v>0</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F8" s="1">
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="G8" s="1">
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -765,16 +824,19 @@
         <v>0</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F9" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -792,16 +854,19 @@
         <v>0</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="3"/>
         <v>16</v>
       </c>
       <c r="F10" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>27</v>
       </c>
     </row>
@@ -819,16 +884,19 @@
         <v>0</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" ref="E11:E21" si="5">B11 - C11</f>
         <v>21</v>
       </c>
       <c r="F11" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G11" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -846,16 +914,19 @@
         <v>0</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="F12" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>37</v>
       </c>
     </row>
@@ -873,16 +944,19 @@
         <v>0</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="F13" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G13" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -900,16 +974,19 @@
         <v>0</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="5"/>
         <v>26</v>
       </c>
       <c r="F14" s="1">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G14" s="1">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>47</v>
       </c>
     </row>
@@ -927,16 +1004,19 @@
         <v>0</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="F15" s="1">
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="G15" s="1">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
       <c r="H15" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>69</v>
       </c>
     </row>
@@ -954,16 +1034,19 @@
         <v>1</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="5"/>
         <v>37</v>
       </c>
       <c r="F16" s="1">
+        <f t="shared" si="4"/>
         <v>5</v>
       </c>
       <c r="G16" s="1">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="H16" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>79</v>
       </c>
     </row>
@@ -981,16 +1064,19 @@
         <v>1</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="F17" s="1">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
       <c r="G17" s="1">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="H17" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>95</v>
       </c>
     </row>
@@ -1008,16 +1094,19 @@
         <v>2</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="5"/>
         <v>91</v>
       </c>
       <c r="F18" s="1">
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="G18" s="1">
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="H18" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>191</v>
       </c>
     </row>
@@ -1035,16 +1124,19 @@
         <v>2</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="5"/>
         <v>118</v>
       </c>
       <c r="F19" s="1">
+        <f t="shared" si="4"/>
         <v>27</v>
       </c>
       <c r="G19" s="1">
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="H19" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>245</v>
       </c>
     </row>
@@ -1062,16 +1154,19 @@
         <v>2</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="5"/>
         <v>140</v>
       </c>
       <c r="F20" s="1">
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="G20" s="1">
+        <f t="shared" si="1"/>
         <v>44</v>
       </c>
       <c r="H20" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>289</v>
       </c>
     </row>
@@ -1089,16 +1184,19 @@
         <v>2</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" si="5"/>
         <v>149</v>
       </c>
       <c r="F21" s="1">
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="G21" s="1">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
       <c r="H21" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>307</v>
       </c>
     </row>
@@ -1116,16 +1214,19 @@
         <v>2</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" ref="E22:E31" si="6">B22 - C22</f>
         <v>164</v>
       </c>
       <c r="F22" s="1">
+        <f t="shared" si="4"/>
         <v>15</v>
       </c>
       <c r="G22" s="1">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
       <c r="H22" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>337</v>
       </c>
     </row>
@@ -1143,16 +1244,19 @@
         <v>2</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" si="6"/>
         <v>184</v>
       </c>
       <c r="F23" s="1">
+        <f xml:space="preserve"> B23 - B22</f>
         <v>20</v>
       </c>
       <c r="G23" s="1">
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="H23" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>377</v>
       </c>
     </row>
@@ -1170,16 +1274,19 @@
         <v>2</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" si="6"/>
         <v>194</v>
       </c>
       <c r="F24" s="1">
+        <f xml:space="preserve"> B24 - B23</f>
         <v>35</v>
       </c>
       <c r="G24" s="1">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H24" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>447</v>
       </c>
     </row>
@@ -1197,16 +1304,19 @@
         <v>2</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" si="6"/>
         <v>263</v>
       </c>
       <c r="F25" s="1">
+        <f t="shared" ref="F25:F35" si="7" xml:space="preserve"> B25 - B24</f>
         <v>69</v>
       </c>
       <c r="G25" s="1">
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>585</v>
       </c>
     </row>
@@ -1224,16 +1334,19 @@
         <v>2</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" si="6"/>
         <v>297</v>
       </c>
       <c r="F26" s="1">
+        <f t="shared" si="7"/>
         <v>34</v>
       </c>
       <c r="G26" s="1">
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="H26" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>653</v>
       </c>
     </row>
@@ -1251,16 +1364,19 @@
         <v>2</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" si="6"/>
         <v>341</v>
       </c>
       <c r="F27" s="1">
+        <f t="shared" si="7"/>
         <v>44</v>
       </c>
       <c r="G27" s="1">
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="H27" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>741</v>
       </c>
     </row>
@@ -1278,16 +1394,19 @@
         <v>4</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" si="6"/>
         <v>365</v>
       </c>
       <c r="F28" s="1">
+        <f t="shared" si="7"/>
         <v>35</v>
       </c>
       <c r="G28" s="1">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="H28" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>811</v>
       </c>
     </row>
@@ -1305,16 +1424,19 @@
         <v>4</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" si="6"/>
         <v>414</v>
       </c>
       <c r="F29" s="1">
+        <f t="shared" si="7"/>
         <v>80</v>
       </c>
       <c r="G29" s="1">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="H29" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>971</v>
       </c>
     </row>
@@ -1332,16 +1454,19 @@
         <v>4</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" si="6"/>
         <v>483</v>
       </c>
       <c r="F30" s="1">
+        <f t="shared" si="7"/>
         <v>69</v>
       </c>
       <c r="G30" s="1">
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="H30" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1109</v>
       </c>
     </row>
@@ -1359,16 +1484,19 @@
         <v>4</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" si="6"/>
         <v>600</v>
       </c>
       <c r="F31" s="1">
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="G31" s="1">
+        <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="H31" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1351</v>
       </c>
     </row>
@@ -1386,16 +1514,19 @@
         <v>4</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" ref="E32:E40" si="8">B32 - C32</f>
         <v>721</v>
       </c>
       <c r="F32" s="1">
+        <f t="shared" si="7"/>
         <v>121</v>
       </c>
       <c r="G32" s="1">
+        <f t="shared" si="1"/>
         <v>242</v>
       </c>
       <c r="H32" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1593</v>
       </c>
     </row>
@@ -1413,16 +1544,19 @@
         <v>5</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" si="8"/>
         <v>834</v>
       </c>
       <c r="F33" s="1">
+        <f t="shared" si="7"/>
         <v>130</v>
       </c>
       <c r="G33" s="1">
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="H33" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1853</v>
       </c>
     </row>
@@ -1440,16 +1574,19 @@
         <v>7</v>
       </c>
       <c r="E34" s="1">
+        <f t="shared" si="8"/>
         <v>973</v>
       </c>
       <c r="F34" s="1">
+        <f t="shared" si="7"/>
         <v>154</v>
       </c>
       <c r="G34" s="1">
+        <f t="shared" si="1"/>
         <v>308</v>
       </c>
       <c r="H34" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2161</v>
       </c>
     </row>
@@ -1467,16 +1604,19 @@
         <v>7</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" si="8"/>
         <v>1376</v>
       </c>
       <c r="F35" s="1">
+        <f t="shared" si="7"/>
         <v>424</v>
       </c>
       <c r="G35" s="1">
+        <f t="shared" si="1"/>
         <v>848</v>
       </c>
       <c r="H35" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3009</v>
       </c>
     </row>
@@ -1494,16 +1634,19 @@
         <v>8</v>
       </c>
       <c r="E36" s="1">
+        <f t="shared" si="8"/>
         <v>1414</v>
       </c>
       <c r="F36" s="1">
+        <f xml:space="preserve"> B36 - B35</f>
         <v>139</v>
       </c>
       <c r="G36" s="1">
+        <f t="shared" si="1"/>
         <v>278</v>
       </c>
       <c r="H36" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3287</v>
       </c>
     </row>
@@ -1521,16 +1664,19 @@
         <v>8</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" si="8"/>
         <v>1521</v>
       </c>
       <c r="F37" s="1">
+        <f xml:space="preserve"> B37 - B36</f>
         <v>114</v>
       </c>
       <c r="G37" s="1">
+        <f t="shared" si="1"/>
         <v>228</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3515</v>
       </c>
     </row>
@@ -1548,16 +1694,19 @@
         <v>8</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" si="8"/>
         <v>1605</v>
       </c>
       <c r="F38" s="1">
+        <f t="shared" ref="F38:F45" si="9" xml:space="preserve"> B38 - B37</f>
         <v>86</v>
       </c>
       <c r="G38" s="1">
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="H38" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3687</v>
       </c>
     </row>
@@ -1575,16 +1724,19 @@
         <v>11</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" si="8"/>
         <v>1693</v>
       </c>
       <c r="F39" s="1">
+        <f t="shared" si="9"/>
         <v>127</v>
       </c>
       <c r="G39" s="1">
+        <f t="shared" si="1"/>
         <v>254</v>
       </c>
       <c r="H39" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3941</v>
       </c>
     </row>
@@ -1602,16 +1754,19 @@
         <v>14</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" si="8"/>
         <v>1940</v>
       </c>
       <c r="F40" s="1">
+        <f t="shared" si="9"/>
         <v>294</v>
       </c>
       <c r="G40" s="1">
+        <f t="shared" si="1"/>
         <v>588</v>
       </c>
       <c r="H40" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4529</v>
       </c>
     </row>
@@ -1629,16 +1784,19 @@
         <v>17</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" ref="E41:E47" si="10">B41 - C41</f>
         <v>2117</v>
       </c>
       <c r="F41" s="1">
+        <f t="shared" si="9"/>
         <v>218</v>
       </c>
       <c r="G41" s="1">
+        <f t="shared" si="1"/>
         <v>436</v>
       </c>
       <c r="H41" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4965</v>
       </c>
     </row>
@@ -1656,16 +1814,19 @@
         <v>20</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" si="10"/>
         <v>2300</v>
       </c>
       <c r="F42" s="1">
+        <f t="shared" si="9"/>
         <v>226</v>
       </c>
       <c r="G42" s="1">
+        <f t="shared" si="1"/>
         <v>452</v>
       </c>
       <c r="H42" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5417</v>
       </c>
     </row>
@@ -1683,16 +1844,19 @@
         <v>23</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" si="10"/>
         <v>2466</v>
       </c>
       <c r="F43" s="1">
+        <f t="shared" si="9"/>
         <v>215</v>
       </c>
       <c r="G43" s="1">
+        <f t="shared" si="1"/>
         <v>430</v>
       </c>
       <c r="H43" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5847</v>
       </c>
     </row>
@@ -1710,16 +1874,19 @@
         <v>27</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" si="10"/>
         <v>2588</v>
       </c>
       <c r="F44" s="1">
+        <f t="shared" si="9"/>
         <v>151</v>
       </c>
       <c r="G44" s="1">
+        <f t="shared" si="1"/>
         <v>302</v>
       </c>
       <c r="H44" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6149</v>
       </c>
     </row>
@@ -1737,16 +1904,19 @@
         <v>27</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" si="10"/>
         <v>2749</v>
       </c>
       <c r="F45" s="1">
+        <f t="shared" si="9"/>
         <v>161</v>
       </c>
       <c r="G45" s="1">
+        <f t="shared" si="1"/>
         <v>322</v>
       </c>
       <c r="H45" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6471</v>
       </c>
     </row>
@@ -1764,16 +1934,19 @@
         <v>27</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" si="10"/>
         <v>2892</v>
       </c>
       <c r="F46" s="1">
+        <f xml:space="preserve"> B46 - B45</f>
         <v>198</v>
       </c>
       <c r="G46" s="1">
+        <f t="shared" si="1"/>
         <v>396</v>
       </c>
       <c r="H46" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6867</v>
       </c>
     </row>
@@ -1791,21 +1964,415 @@
         <v>29</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" si="10"/>
         <v>3018</v>
       </c>
       <c r="F47" s="1">
+        <f xml:space="preserve"> B47 - B46</f>
         <v>290</v>
       </c>
       <c r="G47" s="1">
+        <f t="shared" si="1"/>
         <v>580</v>
       </c>
       <c r="H47" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7447</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48">
+        <v>4062</v>
+      </c>
+      <c r="C48">
+        <v>779</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
+      </c>
+      <c r="E48">
+        <f>B48 - C48</f>
+        <v>3283</v>
+      </c>
+      <c r="F48" s="1">
+        <f t="shared" ref="F48:F52" si="11" xml:space="preserve"> B48 - B47</f>
+        <v>336</v>
+      </c>
+      <c r="G48" s="1">
+        <f t="shared" si="1"/>
+        <v>672</v>
+      </c>
+      <c r="H48" s="1">
+        <f t="shared" si="2"/>
+        <v>8119</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>55</v>
+      </c>
+      <c r="B49">
+        <v>4411</v>
+      </c>
+      <c r="C49">
+        <v>779</v>
+      </c>
+      <c r="D49">
+        <v>33</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" ref="E49:E60" si="12">B49 - C49</f>
+        <v>3632</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="11"/>
+        <v>349</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="1"/>
+        <v>698</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="2"/>
+        <v>8817</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50">
+        <v>4734</v>
+      </c>
+      <c r="C50">
+        <v>877</v>
+      </c>
+      <c r="D50">
+        <v>33</v>
+      </c>
+      <c r="E50" s="1">
+        <f t="shared" si="12"/>
+        <v>3857</v>
+      </c>
+      <c r="F50" s="1">
+        <f t="shared" si="11"/>
+        <v>323</v>
+      </c>
+      <c r="G50" s="1">
+        <f t="shared" si="1"/>
+        <v>646</v>
+      </c>
+      <c r="H50" s="1">
+        <f t="shared" si="2"/>
+        <v>9463</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51">
+        <v>5029</v>
+      </c>
+      <c r="C51">
+        <v>1061</v>
+      </c>
+      <c r="D51">
+        <v>34</v>
+      </c>
+      <c r="E51" s="1">
+        <f t="shared" si="12"/>
+        <v>3968</v>
+      </c>
+      <c r="F51" s="1">
+        <f t="shared" si="11"/>
+        <v>295</v>
+      </c>
+      <c r="G51" s="1">
+        <f t="shared" si="1"/>
+        <v>590</v>
+      </c>
+      <c r="H51" s="1">
+        <f t="shared" si="2"/>
+        <v>10053</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52">
+        <v>5346</v>
+      </c>
+      <c r="C52">
+        <v>1197</v>
+      </c>
+      <c r="D52">
+        <v>37</v>
+      </c>
+      <c r="E52" s="1">
+        <f t="shared" si="12"/>
+        <v>4149</v>
+      </c>
+      <c r="F52" s="1">
+        <f t="shared" si="11"/>
+        <v>317</v>
+      </c>
+      <c r="G52" s="1">
+        <f t="shared" si="1"/>
+        <v>634</v>
+      </c>
+      <c r="H52" s="1">
+        <f t="shared" si="2"/>
+        <v>10687</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>59</v>
+      </c>
+      <c r="B53">
+        <v>5572</v>
+      </c>
+      <c r="C53">
+        <v>1468</v>
+      </c>
+      <c r="D53">
+        <v>37</v>
+      </c>
+      <c r="E53" s="1">
+        <f t="shared" si="12"/>
+        <v>4104</v>
+      </c>
+      <c r="F53" s="1">
+        <f xml:space="preserve"> B53 - B52</f>
+        <v>226</v>
+      </c>
+      <c r="G53" s="1">
+        <f t="shared" si="1"/>
+        <v>452</v>
+      </c>
+      <c r="H53" s="1">
+        <f t="shared" si="2"/>
+        <v>11139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>5884</v>
+      </c>
+      <c r="C54">
+        <v>1532</v>
+      </c>
+      <c r="D54">
+        <v>40</v>
+      </c>
+      <c r="E54" s="1">
+        <f t="shared" si="12"/>
+        <v>4352</v>
+      </c>
+      <c r="F54" s="1">
+        <f xml:space="preserve"> B54 - B53</f>
+        <v>312</v>
+      </c>
+      <c r="G54" s="1">
+        <f t="shared" si="1"/>
+        <v>624</v>
+      </c>
+      <c r="H54" s="1">
+        <f t="shared" si="2"/>
+        <v>11763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>6190</v>
+      </c>
+      <c r="C55">
+        <v>1552</v>
+      </c>
+      <c r="D55">
+        <v>44</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="12"/>
+        <v>4638</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" ref="F55:F60" si="13" xml:space="preserve"> B55 - B54</f>
+        <v>306</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="1"/>
+        <v>612</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="2"/>
+        <v>12375</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56">
+        <v>6565</v>
+      </c>
+      <c r="C56">
+        <v>1597</v>
+      </c>
+      <c r="D56">
+        <v>48</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="12"/>
+        <v>4968</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="13"/>
+        <v>375</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="1"/>
+        <v>750</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="2"/>
+        <v>13125</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>63</v>
+      </c>
+      <c r="B57">
+        <v>6990</v>
+      </c>
+      <c r="C57">
+        <v>1662</v>
+      </c>
+      <c r="D57">
+        <v>53</v>
+      </c>
+      <c r="E57" s="1">
+        <f t="shared" si="12"/>
+        <v>5328</v>
+      </c>
+      <c r="F57" s="1">
+        <f t="shared" si="13"/>
+        <v>425</v>
+      </c>
+      <c r="G57" s="1">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="H57" s="1">
+        <f t="shared" si="2"/>
+        <v>13975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58">
+        <v>7404</v>
+      </c>
+      <c r="C58">
+        <v>1674</v>
+      </c>
+      <c r="D58">
+        <v>53</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="12"/>
+        <v>5730</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="13"/>
+        <v>414</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="1"/>
+        <v>828</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="2"/>
+        <v>14803</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59">
+        <v>7711</v>
+      </c>
+      <c r="C59">
+        <v>1681</v>
+      </c>
+      <c r="D59">
+        <v>56</v>
+      </c>
+      <c r="E59" s="1">
+        <f t="shared" si="12"/>
+        <v>6030</v>
+      </c>
+      <c r="F59" s="1">
+        <f t="shared" si="13"/>
+        <v>307</v>
+      </c>
+      <c r="G59" s="1">
+        <f t="shared" si="1"/>
+        <v>614</v>
+      </c>
+      <c r="H59" s="1">
+        <f t="shared" si="2"/>
+        <v>15417</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60">
+        <v>8050</v>
+      </c>
+      <c r="C60">
+        <v>1784</v>
+      </c>
+      <c r="D60">
+        <v>58</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="12"/>
+        <v>6266</v>
+      </c>
+      <c r="F60" s="1">
+        <f t="shared" si="13"/>
+        <v>339</v>
+      </c>
+      <c r="G60" s="1">
+        <f t="shared" si="1"/>
+        <v>678</v>
+      </c>
+      <c r="H60" s="1">
+        <f t="shared" si="2"/>
+        <v>16095</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/src/tables/stats.xlsx
+++ b/src/tables/stats.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>1 апреля</t>
   </si>
@@ -222,6 +222,15 @@
   </si>
   <si>
     <t>12 мая</t>
+  </si>
+  <si>
+    <t>13 мая</t>
+  </si>
+  <si>
+    <t>14 мая</t>
+  </si>
+  <si>
+    <t>15 мая</t>
   </si>
 </sst>
 </file>
@@ -565,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H60"/>
+  <dimension ref="A1:H63"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I60" sqref="I60"/>
+      <selection activeCell="I62" sqref="I62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -652,7 +661,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G60" si="1" xml:space="preserve"> F3 * 2</f>
+        <f t="shared" ref="G3:G63" si="1" xml:space="preserve"> F3 * 2</f>
         <v>6</v>
       </c>
       <c r="H3">
@@ -686,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H60" si="2" xml:space="preserve"> H3 + G4</f>
+        <f t="shared" ref="H4:H63" si="2" xml:space="preserve"> H3 + G4</f>
         <v>13</v>
       </c>
     </row>
@@ -2024,7 +2033,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:E60" si="12">B49 - C49</f>
+        <f t="shared" ref="E49:E63" si="12">B49 - C49</f>
         <v>3632</v>
       </c>
       <c r="F49" s="1">
@@ -2208,7 +2217,7 @@
         <v>4638</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" ref="F55:F60" si="13" xml:space="preserve"> B55 - B54</f>
+        <f t="shared" ref="F55:F63" si="13" xml:space="preserve"> B55 - B54</f>
         <v>306</v>
       </c>
       <c r="G55" s="1">
@@ -2368,6 +2377,96 @@
       <c r="H60" s="1">
         <f t="shared" si="2"/>
         <v>16095</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61">
+        <v>8485</v>
+      </c>
+      <c r="C61">
+        <v>1848</v>
+      </c>
+      <c r="D61">
+        <v>63</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="12"/>
+        <v>6637</v>
+      </c>
+      <c r="F61" s="1">
+        <f t="shared" si="13"/>
+        <v>435</v>
+      </c>
+      <c r="G61" s="1">
+        <f t="shared" si="1"/>
+        <v>870</v>
+      </c>
+      <c r="H61" s="1">
+        <f t="shared" si="2"/>
+        <v>16965</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62">
+        <v>8945</v>
+      </c>
+      <c r="C62">
+        <v>1899</v>
+      </c>
+      <c r="D62">
+        <v>69</v>
+      </c>
+      <c r="E62">
+        <f t="shared" si="12"/>
+        <v>7046</v>
+      </c>
+      <c r="F62" s="1">
+        <f t="shared" si="13"/>
+        <v>460</v>
+      </c>
+      <c r="G62" s="1">
+        <f t="shared" si="1"/>
+        <v>920</v>
+      </c>
+      <c r="H62" s="1">
+        <f t="shared" si="2"/>
+        <v>17885</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>69</v>
+      </c>
+      <c r="B63">
+        <v>9486</v>
+      </c>
+      <c r="C63">
+        <v>2005</v>
+      </c>
+      <c r="D63">
+        <v>74</v>
+      </c>
+      <c r="E63">
+        <f t="shared" si="12"/>
+        <v>7481</v>
+      </c>
+      <c r="F63" s="1">
+        <f t="shared" si="13"/>
+        <v>541</v>
+      </c>
+      <c r="G63" s="1">
+        <f t="shared" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="H63" s="1">
+        <f t="shared" si="2"/>
+        <v>18967</v>
       </c>
     </row>
   </sheetData>

--- a/src/tables/stats.xlsx
+++ b/src/tables/stats.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>1 апреля</t>
   </si>
@@ -231,6 +231,18 @@
   </si>
   <si>
     <t>15 мая</t>
+  </si>
+  <si>
+    <t>16 мая</t>
+  </si>
+  <si>
+    <t>17 мая</t>
+  </si>
+  <si>
+    <t>18 мая</t>
+  </si>
+  <si>
+    <t>19 мая</t>
   </si>
 </sst>
 </file>
@@ -574,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H63"/>
+  <dimension ref="A1:H67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="I62" sqref="I62"/>
+      <selection activeCell="J63" sqref="J63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -661,7 +673,7 @@
         <v>3</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G63" si="1" xml:space="preserve"> F3 * 2</f>
+        <f t="shared" ref="G3:G67" si="1" xml:space="preserve"> F3 * 2</f>
         <v>6</v>
       </c>
       <c r="H3">
@@ -695,7 +707,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="1">
-        <f t="shared" ref="H4:H63" si="2" xml:space="preserve"> H3 + G4</f>
+        <f t="shared" ref="H4:H67" si="2" xml:space="preserve"> H3 + G4</f>
         <v>13</v>
       </c>
     </row>
@@ -2033,7 +2045,7 @@
         <v>33</v>
       </c>
       <c r="E49" s="1">
-        <f t="shared" ref="E49:E63" si="12">B49 - C49</f>
+        <f t="shared" ref="E49:E67" si="12">B49 - C49</f>
         <v>3632</v>
       </c>
       <c r="F49" s="1">
@@ -2217,7 +2229,7 @@
         <v>4638</v>
       </c>
       <c r="F55" s="1">
-        <f t="shared" ref="F55:F63" si="13" xml:space="preserve"> B55 - B54</f>
+        <f t="shared" ref="F55:F67" si="13" xml:space="preserve"> B55 - B54</f>
         <v>306</v>
       </c>
       <c r="G55" s="1">
@@ -2467,6 +2479,126 @@
       <c r="H63" s="1">
         <f t="shared" si="2"/>
         <v>18967</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>70</v>
+      </c>
+      <c r="B64">
+        <v>10011</v>
+      </c>
+      <c r="C64">
+        <v>2109</v>
+      </c>
+      <c r="D64">
+        <v>80</v>
+      </c>
+      <c r="E64">
+        <f t="shared" si="12"/>
+        <v>7902</v>
+      </c>
+      <c r="F64" s="1">
+        <f t="shared" si="13"/>
+        <v>525</v>
+      </c>
+      <c r="G64" s="1">
+        <f t="shared" si="1"/>
+        <v>1050</v>
+      </c>
+      <c r="H64" s="1">
+        <f t="shared" si="2"/>
+        <v>20017</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65">
+        <v>10462</v>
+      </c>
+      <c r="C65">
+        <v>2175</v>
+      </c>
+      <c r="D65">
+        <v>85</v>
+      </c>
+      <c r="E65">
+        <f t="shared" si="12"/>
+        <v>8287</v>
+      </c>
+      <c r="F65" s="1">
+        <f t="shared" si="13"/>
+        <v>451</v>
+      </c>
+      <c r="G65" s="1">
+        <f t="shared" si="1"/>
+        <v>902</v>
+      </c>
+      <c r="H65" s="1">
+        <f t="shared" si="2"/>
+        <v>20919</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66">
+        <v>10887</v>
+      </c>
+      <c r="C66">
+        <v>2209</v>
+      </c>
+      <c r="D66">
+        <v>90</v>
+      </c>
+      <c r="E66">
+        <f t="shared" si="12"/>
+        <v>8678</v>
+      </c>
+      <c r="F66" s="1">
+        <f t="shared" si="13"/>
+        <v>425</v>
+      </c>
+      <c r="G66" s="1">
+        <f t="shared" si="1"/>
+        <v>850</v>
+      </c>
+      <c r="H66" s="1">
+        <f t="shared" si="2"/>
+        <v>21769</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67">
+        <v>11340</v>
+      </c>
+      <c r="C67">
+        <v>2272</v>
+      </c>
+      <c r="D67">
+        <v>95</v>
+      </c>
+      <c r="E67">
+        <f t="shared" si="12"/>
+        <v>9068</v>
+      </c>
+      <c r="F67" s="1">
+        <f t="shared" si="13"/>
+        <v>453</v>
+      </c>
+      <c r="G67" s="1">
+        <f t="shared" si="1"/>
+        <v>906</v>
+      </c>
+      <c r="H67" s="1">
+        <f t="shared" si="2"/>
+        <v>22675</v>
       </c>
     </row>
   </sheetData>
